--- a/remedy_excel.xlsx
+++ b/remedy_excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashutoshgoenka/Desktop/Shurtan Gail/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ECB59CA5-A5F3-9D41-8D89-29DE1F3BF993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3596A6A5-2B56-854B-B1C1-6723BBB8175C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="224">
   <si>
     <t>Observations</t>
   </si>
@@ -732,12 +732,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -780,7 +786,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -807,6 +813,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1105,8 +1114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D208"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1368,8 +1377,10 @@
         <v>221</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="6"/>
+    <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="11" t="s">
+        <v>19</v>
+      </c>
       <c r="B19" s="3" t="s">
         <v>5</v>
       </c>
@@ -1380,8 +1391,10 @@
         <v>222</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="6"/>
+    <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="11" t="s">
+        <v>19</v>
+      </c>
       <c r="B20" s="3" t="s">
         <v>7</v>
       </c>

--- a/remedy_excel.xlsx
+++ b/remedy_excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashutoshgoenka/Desktop/Shurtan Gail/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3596A6A5-2B56-854B-B1C1-6723BBB8175C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{624548BA-927B-7B44-AF0D-DDD750F07535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
